--- a/改进处理结果.xlsx
+++ b/改进处理结果.xlsx
@@ -671,12 +671,14 @@
       <c r="B6" t="n">
         <v>29.95555556</v>
       </c>
-      <c r="C6" t="n">
-        <v>12.28571428571429</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12.70547795686962</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -699,10 +701,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>31.81123920697286</v>
+        <v>31.85399459749691</v>
       </c>
       <c r="K6" t="n">
-        <v>1.85568364697286</v>
+        <v>1.898439037496914</v>
       </c>
     </row>
     <row r="7">
@@ -1015,12 +1017,14 @@
       <c r="B14" t="n">
         <v>35.94414543</v>
       </c>
-      <c r="C14" t="n">
-        <v>11.57142857142857</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>108.25060660522738</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1043,10 +1047,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>31.73881902686922</v>
+        <v>45.36652878532207</v>
       </c>
       <c r="K14" t="n">
-        <v>-4.20532640313078</v>
+        <v>9.422383355322076</v>
       </c>
     </row>
     <row r="15">
@@ -1058,12 +1062,14 @@
       <c r="B15" t="n">
         <v>35.05563176</v>
       </c>
-      <c r="C15" t="n">
-        <v>17.3592005894201</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18.416670106527523</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1086,10 +1092,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>32.3377390347389</v>
+        <v>32.45015098065704</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.717892725261095</v>
+        <v>-2.605480779342955</v>
       </c>
     </row>
     <row r="16">
@@ -1488,12 +1494,14 @@
       <c r="B25" t="n">
         <v>33.28402367</v>
       </c>
-      <c r="C25" t="n">
-        <v>14.72213558941654</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14.757945929055612</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1516,10 +1524,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>32.06142898356372</v>
+        <v>32.06514275908164</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.222594686436288</v>
+        <v>-1.218880910918365</v>
       </c>
     </row>
     <row r="26">
@@ -1617,12 +1625,14 @@
       <c r="B28" t="n">
         <v>29.13631634</v>
       </c>
-      <c r="C28" t="n">
-        <v>13.42857142857143</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>38.34039043828304</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1645,10 +1655,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>31.92798665796777</v>
+        <v>34.74046399246692</v>
       </c>
       <c r="K28" t="n">
-        <v>2.791670317967771</v>
+        <v>5.604147652466921</v>
       </c>
     </row>
     <row r="29">
@@ -1703,12 +1713,14 @@
       <c r="B30" t="n">
         <v>33.11114958</v>
       </c>
-      <c r="C30" t="n">
-        <v>17.59978257295947</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17.722454918790866</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1731,10 +1743,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>32.3632325317979</v>
+        <v>32.37624999698601</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.7479170482021047</v>
+        <v>-0.7348995830139913</v>
       </c>
     </row>
     <row r="31">
@@ -2391,12 +2403,14 @@
       <c r="B46" t="n">
         <v>29.37239738</v>
       </c>
-      <c r="C46" t="n">
-        <v>13.31818637997602</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13.572883774605112</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2419,10 +2433,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>31.91666338778934</v>
+        <v>31.94280533750418</v>
       </c>
       <c r="K46" t="n">
-        <v>2.544266007789343</v>
+        <v>2.570407957504184</v>
       </c>
     </row>
     <row r="47">
@@ -2434,12 +2448,14 @@
       <c r="B47" t="n">
         <v>28.3446712</v>
       </c>
-      <c r="C47" t="n">
-        <v>12.28571428571429</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>262.9731027053738</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2462,10 +2478,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>31.81123920697286</v>
+        <v>83.2147625441916</v>
       </c>
       <c r="K47" t="n">
-        <v>3.46656800697286</v>
+        <v>54.8700913441916</v>
       </c>
     </row>
     <row r="48">
@@ -2563,12 +2579,14 @@
       <c r="B50" t="n">
         <v>32.69054178</v>
       </c>
-      <c r="C50" t="n">
-        <v>13.14285714285714</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>81.70478339169304</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2591,10 +2609,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>31.89869881489261</v>
+        <v>40.85701474550208</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.7918429651073886</v>
+        <v>8.166472965502088</v>
       </c>
     </row>
     <row r="51">
@@ -2606,12 +2624,14 @@
       <c r="B51" t="n">
         <v>34.92767916</v>
       </c>
-      <c r="C51" t="n">
-        <v>12.16635148523815</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>12.220892036060096</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2634,10 +2654,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>31.79910794057188</v>
+        <v>31.80464963315147</v>
       </c>
       <c r="K51" t="n">
-        <v>-3.128571219428121</v>
+        <v>-3.12302952684853</v>
       </c>
     </row>
     <row r="52">
@@ -2649,12 +2669,14 @@
       <c r="B52" t="n">
         <v>38.56749311</v>
       </c>
-      <c r="C52" t="n">
-        <v>15.67702672509233</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>15.750248713616573</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2677,10 +2699,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>32.16081955739484</v>
+        <v>32.16847196492564</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.406673552605163</v>
+        <v>-6.399021145074357</v>
       </c>
     </row>
     <row r="53">
@@ -2735,12 +2757,14 @@
       <c r="B54" t="n">
         <v>37.20238095</v>
       </c>
-      <c r="C54" t="n">
-        <v>21.2740341541446</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>21.894841177345945</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2763,10 +2787,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>32.75850915027495</v>
+        <v>32.82639513149485</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.443871799725045</v>
+        <v>-4.37598581850515</v>
       </c>
     </row>
     <row r="55">
@@ -2864,12 +2888,14 @@
       <c r="B57" t="n">
         <v>32.05128205</v>
       </c>
-      <c r="C57" t="n">
-        <v>12.77349123764897</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12.585771294758533</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2892,10 +2918,10 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>31.86093582821802</v>
+        <v>31.84178696161546</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.1903462217819758</v>
+        <v>-0.2094950883845392</v>
       </c>
     </row>
     <row r="58">
@@ -2950,12 +2976,14 @@
       <c r="B59" t="n">
         <v>31.22945431</v>
       </c>
-      <c r="C59" t="n">
-        <v>12.85714285714286</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2312.4009380790994</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2978,10 +3006,10 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>31.86947829203507</v>
+        <v>2447.171102216173</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6400239820350677</v>
+        <v>2415.941647906172</v>
       </c>
     </row>
     <row r="60">
@@ -3036,12 +3064,14 @@
       <c r="B61" t="n">
         <v>38.94681326</v>
       </c>
-      <c r="C61" t="n">
-        <v>13.9495862063263</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>13.255265366854104</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3064,10 +3094,10 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>31.98156786693066</v>
+        <v>31.91021346264427</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.965245393069335</v>
+        <v>-7.036599797355731</v>
       </c>
     </row>
     <row r="62">
@@ -3165,12 +3195,14 @@
       <c r="B64" t="n">
         <v>36.28973726</v>
       </c>
-      <c r="C64" t="n">
-        <v>14.15738453630527</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>14.220556580448436</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3193,10 +3225,10 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>32.00300031356449</v>
+        <v>32.00952297504097</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.286736946435511</v>
+        <v>-4.280214284959037</v>
       </c>
     </row>
     <row r="65">
@@ -3294,12 +3326,14 @@
       <c r="B67" t="n">
         <v>31.21748179</v>
       </c>
-      <c r="C67" t="n">
-        <v>14.06291495606776</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>13.524768708919915</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3322,10 +3356,10 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>31.9932522488545</v>
+        <v>31.93786274471097</v>
       </c>
       <c r="K67" t="n">
-        <v>0.7757704588544954</v>
+        <v>0.720380954710965</v>
       </c>
     </row>
     <row r="68">
@@ -3466,12 +3500,14 @@
       <c r="B71" t="n">
         <v>30.46875</v>
       </c>
-      <c r="C71" t="n">
-        <v>12.28571428571429</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>13.007135067184056</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3494,10 +3530,10 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>31.81123920697286</v>
+        <v>31.88480987580644</v>
       </c>
       <c r="K71" t="n">
-        <v>1.342489206972861</v>
+        <v>1.41605987580644</v>
       </c>
     </row>
     <row r="72">
@@ -3552,12 +3588,14 @@
       <c r="B73" t="n">
         <v>30.83289383</v>
       </c>
-      <c r="C73" t="n">
-        <v>13.42857142857143</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>13.429728375731074</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3580,10 +3618,10 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>31.92798665796777</v>
+        <v>31.92810539052408</v>
       </c>
       <c r="K73" t="n">
-        <v>1.095092827967772</v>
+        <v>1.095211560524081</v>
       </c>
     </row>
     <row r="74">
@@ -3724,12 +3762,14 @@
       <c r="B77" t="n">
         <v>35.15625</v>
       </c>
-      <c r="C77" t="n">
-        <v>12</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>10.319947515533416</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3752,10 +3792,10 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>31.78222064476819</v>
+        <v>31.61294794682641</v>
       </c>
       <c r="K77" t="n">
-        <v>-3.374029355231812</v>
+        <v>-3.543302053173591</v>
       </c>
     </row>
     <row r="78">
@@ -3810,12 +3850,14 @@
       <c r="B79" t="n">
         <v>29.17488494</v>
       </c>
-      <c r="C79" t="n">
-        <v>20.20663810546316</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>20.38333278400271</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3838,10 +3880,10 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>32.64253115401063</v>
+        <v>32.66166503292175</v>
       </c>
       <c r="K79" t="n">
-        <v>3.467646214010635</v>
+        <v>3.486780092921755</v>
       </c>
     </row>
     <row r="80">
@@ -4799,12 +4841,14 @@
       <c r="B102" t="n">
         <v>31.99217133</v>
       </c>
-      <c r="C102" t="n">
-        <v>13.12546469758565</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>13.141238419751065</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4827,10 +4871,10 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>31.89691813340646</v>
+        <v>31.89853307549633</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.09525319659354281</v>
+        <v>-0.09363825450367003</v>
       </c>
     </row>
     <row r="103">
@@ -4885,12 +4929,14 @@
       <c r="B104" t="n">
         <v>28.98114344</v>
       </c>
-      <c r="C104" t="n">
-        <v>12.28571428571429</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>12.258182633778082</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4913,10 +4959,10 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>31.81123920697286</v>
+        <v>31.80844002466596</v>
       </c>
       <c r="K104" t="n">
-        <v>2.83009576697286</v>
+        <v>2.827296584665962</v>
       </c>
     </row>
     <row r="105">
@@ -4928,12 +4974,14 @@
       <c r="B105" t="n">
         <v>33.40920489</v>
       </c>
-      <c r="C105" t="n">
-        <v>13.14285714285714</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>16.67701604863831</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4956,10 +5004,10 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>31.89869881489261</v>
+        <v>32.26571027022004</v>
       </c>
       <c r="K105" t="n">
-        <v>-1.51050607510739</v>
+        <v>-1.143494619779958</v>
       </c>
     </row>
     <row r="106">
@@ -5014,12 +5062,14 @@
       <c r="B107" t="n">
         <v>32.83941526</v>
       </c>
-      <c r="C107" t="n">
-        <v>13</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>9.862184673470123</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -5042,10 +5092,10 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>31.88408013843664</v>
+        <v>31.5672298389111</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.9553351215633654</v>
+        <v>-1.272185421088906</v>
       </c>
     </row>
     <row r="108">
@@ -5143,12 +5193,14 @@
       <c r="B110" t="n">
         <v>28.3446712</v>
       </c>
-      <c r="C110" t="n">
-        <v>14.39338966962135</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>14.160718439114982</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5171,10 +5223,10 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>32.02738521518175</v>
+        <v>32.00334446457715</v>
       </c>
       <c r="K110" t="n">
-        <v>3.682714015181752</v>
+        <v>3.658673264577146</v>
       </c>
     </row>
     <row r="111">
@@ -5186,12 +5238,14 @@
       <c r="B111" t="n">
         <v>35.32123736</v>
       </c>
-      <c r="C111" t="n">
-        <v>12.85714285714286</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>37.5612325289019</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5214,10 +5268,10 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>31.86947829203507</v>
+        <v>34.64474593755035</v>
       </c>
       <c r="K111" t="n">
-        <v>-3.451759067964929</v>
+        <v>-0.6764914224496508</v>
       </c>
     </row>
     <row r="112">
@@ -5401,12 +5455,14 @@
       <c r="B116" t="n">
         <v>30.86303587</v>
       </c>
-      <c r="C116" t="n">
-        <v>12.28571428571429</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>83.17745369708311</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -5429,10 +5485,10 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>31.81123920697286</v>
+        <v>41.09196165360149</v>
       </c>
       <c r="K116" t="n">
-        <v>0.9482033369728597</v>
+        <v>10.22892578360149</v>
       </c>
     </row>
     <row r="117">
@@ -5530,12 +5586,14 @@
       <c r="B119" t="n">
         <v>37.29068808</v>
       </c>
-      <c r="C119" t="n">
-        <v>13.57142857142857</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>12.447638886257932</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -5558,10 +5616,10 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>31.94265582458696</v>
+        <v>31.82771496148234</v>
       </c>
       <c r="K119" t="n">
-        <v>-5.348032255413042</v>
+        <v>-5.46297311851766</v>
       </c>
     </row>
     <row r="120">
@@ -5573,12 +5631,14 @@
       <c r="B120" t="n">
         <v>29.89969136</v>
       </c>
-      <c r="C120" t="n">
-        <v>17.15404671545902</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>17.951778187522557</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -5601,10 +5661,10 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>32.31603741662911</v>
+        <v>32.40061808652919</v>
       </c>
       <c r="K120" t="n">
-        <v>2.416346056629116</v>
+        <v>2.500926726529187</v>
       </c>
     </row>
     <row r="121">
@@ -5616,12 +5676,14 @@
       <c r="B121" t="n">
         <v>26.61934339</v>
       </c>
-      <c r="C121" t="n">
-        <v>12.42857142857143</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>12.280494302951503</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5644,10 +5706,10 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>31.8257737331568</v>
+        <v>31.81070843585935</v>
       </c>
       <c r="K121" t="n">
-        <v>5.206430343156804</v>
+        <v>5.191365045859349</v>
       </c>
     </row>
     <row r="122">
@@ -5788,12 +5850,14 @@
       <c r="B125" t="n">
         <v>31.25</v>
       </c>
-      <c r="C125" t="n">
-        <v>12.28571428571429</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1480.6180451117625</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5816,10 +5880,10 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>31.81123920697286</v>
+        <v>1070.112415035969</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5612392069728607</v>
+        <v>1038.862415035969</v>
       </c>
     </row>
     <row r="126">
@@ -5831,12 +5895,14 @@
       <c r="B126" t="n">
         <v>29.06574394</v>
       </c>
-      <c r="C126" t="n">
-        <v>12.67168444910956</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>12.818501657201285</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5859,10 +5925,10 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>31.85054715241645</v>
+        <v>31.86553155381491</v>
       </c>
       <c r="K126" t="n">
-        <v>2.784803212416449</v>
+        <v>2.79978761381491</v>
       </c>
     </row>
     <row r="127">
@@ -5874,12 +5940,14 @@
       <c r="B127" t="n">
         <v>30.11940191</v>
       </c>
-      <c r="C127" t="n">
-        <v>17.17446911447457</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>17.16388835942526</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5902,10 +5970,10 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>32.31819618632442</v>
+        <v>32.31707769430879</v>
       </c>
       <c r="K127" t="n">
-        <v>2.198794276324421</v>
+        <v>2.197675784308785</v>
       </c>
     </row>
     <row r="128">
@@ -6777,12 +6845,14 @@
       <c r="B148" t="n">
         <v>34.99747006</v>
       </c>
-      <c r="C148" t="n">
-        <v>11.85714285714286</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1.9681588373940748</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -6805,10 +6875,10 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>31.76773660874746</v>
+        <v>30.80601551268979</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.229733451252539</v>
+        <v>-4.191454547310212</v>
       </c>
     </row>
     <row r="149">
@@ -6906,12 +6976,14 @@
       <c r="B151" t="n">
         <v>30.47052154</v>
       </c>
-      <c r="C151" t="n">
-        <v>12</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>103.03138358182736</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -6934,10 +7006,10 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>31.78222064476819</v>
+        <v>44.43400850420618</v>
       </c>
       <c r="K151" t="n">
-        <v>1.311699104768188</v>
+        <v>13.96348696420618</v>
       </c>
     </row>
     <row r="152">
@@ -7121,12 +7193,14 @@
       <c r="B156" t="n">
         <v>36.36363636</v>
       </c>
-      <c r="C156" t="n">
-        <v>12.57142857142857</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>16.214201313584578</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -7149,10 +7223,10 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>31.84032508939515</v>
+        <v>32.21706227257037</v>
       </c>
       <c r="K156" t="n">
-        <v>-4.523311270604847</v>
+        <v>-4.146574087429627</v>
       </c>
     </row>
     <row r="157">
@@ -7164,12 +7238,14 @@
       <c r="B157" t="n">
         <v>31.22130395</v>
       </c>
-      <c r="C157" t="n">
-        <v>12.14285714285714</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>8.434797313921534</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -7192,10 +7268,10 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>31.79672151084332</v>
+        <v>31.42578203807707</v>
       </c>
       <c r="K157" t="n">
-        <v>0.5754175608433201</v>
+        <v>0.2044780880770674</v>
       </c>
     </row>
     <row r="158">
@@ -7207,12 +7283,14 @@
       <c r="B158" t="n">
         <v>32</v>
       </c>
-      <c r="C158" t="n">
-        <v>23.35967965548888</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>23.42711377141214</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -7235,10 +7313,10 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>32.98783669185534</v>
+        <v>32.99531129022984</v>
       </c>
       <c r="K158" t="n">
-        <v>0.9878366918553354</v>
+        <v>0.9953112902298429</v>
       </c>
     </row>
     <row r="159">
@@ -7250,12 +7328,14 @@
       <c r="B159" t="n">
         <v>33.203125</v>
       </c>
-      <c r="C159" t="n">
-        <v>18.41872159896551</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>18.336025525704336</t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -7278,10 +7358,10 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>32.4503699562535</v>
+        <v>32.44154575573421</v>
       </c>
       <c r="K159" t="n">
-        <v>-0.7527550437464967</v>
+        <v>-0.7615792442657892</v>
       </c>
     </row>
     <row r="160">
@@ -7379,12 +7459,14 @@
       <c r="B162" t="n">
         <v>30.3758766544418</v>
       </c>
-      <c r="C162" t="n">
-        <v>11.42857142857143</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>755.9970979167441</t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -7407,10 +7489,10 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>31.72438548101171</v>
+        <v>335.499835094394</v>
       </c>
       <c r="K162" t="n">
-        <v>1.348508826569908</v>
+        <v>305.1239584399522</v>
       </c>
     </row>
     <row r="163">
@@ -7422,12 +7504,14 @@
       <c r="B163" t="n">
         <v>31.3209292888397</v>
       </c>
-      <c r="C163" t="n">
-        <v>12.57142857142857</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>15781.869116411877</t>
+        </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -7450,10 +7534,10 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>31.84032508939515</v>
+        <v>104175.0068819942</v>
       </c>
       <c r="K163" t="n">
-        <v>0.5193958005554542</v>
+        <v>104143.6859527053</v>
       </c>
     </row>
     <row r="164">
@@ -7465,12 +7549,14 @@
       <c r="B164" t="n">
         <v>29.4422328204865</v>
       </c>
-      <c r="C164" t="n">
-        <v>11.71428571428571</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>92.69196651229173</t>
+        </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -7493,10 +7579,10 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>31.75326940278114</v>
+        <v>42.65299290143548</v>
       </c>
       <c r="K164" t="n">
-        <v>2.311036582294637</v>
+        <v>13.21076008094898</v>
       </c>
     </row>
     <row r="165">
@@ -7508,12 +7594,14 @@
       <c r="B165" t="n">
         <v>32.5719340208979</v>
       </c>
-      <c r="C165" t="n">
-        <v>12.28571428571429</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2324.2395611404845</t>
+        </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -7536,10 +7624,10 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>31.81123920697286</v>
+        <v>2470.888675731633</v>
       </c>
       <c r="K165" t="n">
-        <v>-0.7606948139250385</v>
+        <v>2438.316741710735</v>
       </c>
     </row>
     <row r="166">
@@ -7551,12 +7639,14 @@
       <c r="B166" t="n">
         <v>32.9443622062428</v>
       </c>
-      <c r="C166" t="n">
-        <v>13.57142857142857</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>35.033559882100334</t>
+        </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -7579,10 +7669,10 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>31.94265582458696</v>
+        <v>34.33767274874955</v>
       </c>
       <c r="K166" t="n">
-        <v>-1.00170638165584</v>
+        <v>1.393310542506754</v>
       </c>
     </row>
     <row r="167">
@@ -7594,12 +7684,14 @@
       <c r="B167" t="n">
         <v>33.1012728287967</v>
       </c>
-      <c r="C167" t="n">
-        <v>12.42857142857143</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>12371.955421931232</t>
+        </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -7622,10 +7714,10 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>31.8257737331568</v>
+        <v>64277.66682984064</v>
       </c>
       <c r="K167" t="n">
-        <v>-1.275499095639898</v>
+        <v>64244.56555701185</v>
       </c>
     </row>
     <row r="168">
@@ -7637,12 +7729,14 @@
       <c r="B168" t="n">
         <v>29.2349519135559</v>
       </c>
-      <c r="C168" t="n">
-        <v>11.14285714285714</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>72.41417746085692</t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -7665,10 +7759,10 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>31.69556887945991</v>
+        <v>39.41604239275445</v>
       </c>
       <c r="K168" t="n">
-        <v>2.460616965904006</v>
+        <v>10.18109047919855</v>
       </c>
     </row>
     <row r="169">
@@ -7680,12 +7774,14 @@
       <c r="B169" t="n">
         <v>31.7136830091578</v>
       </c>
-      <c r="C169" t="n">
-        <v>13</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>148.62911741411713</t>
+        </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -7708,10 +7804,10 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>31.88408013843664</v>
+        <v>53.3401511949278</v>
       </c>
       <c r="K169" t="n">
-        <v>0.170397129278836</v>
+        <v>21.62646818577</v>
       </c>
     </row>
     <row r="170">
@@ -7723,12 +7819,14 @@
       <c r="B170" t="n">
         <v>29.8050560975993</v>
       </c>
-      <c r="C170" t="n">
-        <v>11.57142857142857</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>12244.258394817327</t>
+        </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -7751,10 +7849,10 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>31.73881902686922</v>
+        <v>62969.83085647479</v>
       </c>
       <c r="K170" t="n">
-        <v>1.933762929269918</v>
+        <v>62940.0258003772</v>
       </c>
     </row>
     <row r="171">
@@ -7766,12 +7864,14 @@
       <c r="B171" t="n">
         <v>31.9130114049191</v>
       </c>
-      <c r="C171" t="n">
-        <v>11</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>66.4196994858359</t>
+        </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -7794,10 +7894,10 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>31.68118582376561</v>
+        <v>38.52408003305061</v>
       </c>
       <c r="K171" t="n">
-        <v>-0.2318255811534904</v>
+        <v>6.611068628131509</v>
       </c>
     </row>
     <row r="172">
@@ -7809,12 +7909,14 @@
       <c r="B172" t="n">
         <v>33.9504634756979</v>
       </c>
-      <c r="C172" t="n">
-        <v>11.57142857142857</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>18.850738725706773</t>
+        </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -7837,10 +7939,10 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>31.73881902686922</v>
+        <v>32.49656063901396</v>
       </c>
       <c r="K172" t="n">
-        <v>-2.211644448828682</v>
+        <v>-1.453902836683945</v>
       </c>
     </row>
     <row r="173">
@@ -7852,12 +7954,14 @@
       <c r="B173" t="n">
         <v>30.3208818878574</v>
       </c>
-      <c r="C173" t="n">
-        <v>12</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3.6601112555529287</t>
+        </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -7880,10 +7984,10 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>31.78222064476819</v>
+        <v>30.96484217500381</v>
       </c>
       <c r="K173" t="n">
-        <v>1.461338756910788</v>
+        <v>0.6439602871464096</v>
       </c>
     </row>
     <row r="174">
@@ -7895,12 +7999,14 @@
       <c r="B174" t="n">
         <v>33.1447392272428</v>
       </c>
-      <c r="C174" t="n">
-        <v>11.85714285714286</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>38.27617355916617</t>
+        </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -7923,10 +8029,10 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>31.76773660874746</v>
+        <v>34.7325561411315</v>
       </c>
       <c r="K174" t="n">
-        <v>-1.377002618495343</v>
+        <v>1.587816913888702</v>
       </c>
     </row>
     <row r="175">
@@ -7938,12 +8044,14 @@
       <c r="B175" t="n">
         <v>30.2523632192256</v>
       </c>
-      <c r="C175" t="n">
-        <v>12</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>7.258490206484273</t>
+        </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -7966,10 +8074,10 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>31.78222064476819</v>
+        <v>31.31047806517633</v>
       </c>
       <c r="K175" t="n">
-        <v>1.529857425542588</v>
+        <v>1.058114845950726</v>
       </c>
     </row>
     <row r="176">
@@ -7981,12 +8089,14 @@
       <c r="B176" t="n">
         <v>30.9542707710965</v>
       </c>
-      <c r="C176" t="n">
-        <v>12.71428571428571</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>12598.805277629057</t>
+        </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -8009,10 +8119,10 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>31.85489327568791</v>
+        <v>66634.16112250248</v>
       </c>
       <c r="K176" t="n">
-        <v>0.9006225045914107</v>
+        <v>66603.20685173139</v>
       </c>
     </row>
     <row r="177">
@@ -8024,12 +8134,14 @@
       <c r="B177" t="n">
         <v>32.719395379731</v>
       </c>
-      <c r="C177" t="n">
-        <v>12.57142857142857</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>193.6976248628262</t>
+        </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -8052,10 +8164,10 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>31.84032508939515</v>
+        <v>63.82781096122297</v>
       </c>
       <c r="K177" t="n">
-        <v>-0.8790702903358429</v>
+        <v>31.10841558149197</v>
       </c>
     </row>
     <row r="178">
@@ -8067,12 +8179,14 @@
       <c r="B178" t="n">
         <v>30.2769532064808</v>
       </c>
-      <c r="C178" t="n">
-        <v>11.28571428571429</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>16.8381942141299</t>
+        </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -8095,10 +8209,10 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>31.7099687652086</v>
+        <v>32.28269371413214</v>
       </c>
       <c r="K178" t="n">
-        <v>1.433015558727803</v>
+        <v>2.005740507651335</v>
       </c>
     </row>
     <row r="179">
@@ -8110,12 +8224,14 @@
       <c r="B179" t="n">
         <v>28.5282915535451</v>
       </c>
-      <c r="C179" t="n">
-        <v>12</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>34.91604757588169</t>
+        </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -8138,10 +8254,10 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>31.78222064476819</v>
+        <v>34.3235249897845</v>
       </c>
       <c r="K179" t="n">
-        <v>3.253929091223089</v>
+        <v>5.795233436239396</v>
       </c>
     </row>
     <row r="180">
@@ -8153,12 +8269,14 @@
       <c r="B180" t="n">
         <v>34.1412917452927</v>
       </c>
-      <c r="C180" t="n">
-        <v>13.28571428571429</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>34.064234985188044</t>
+        </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -8181,10 +8299,10 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>31.91333432140299</v>
+        <v>34.22131245169695</v>
       </c>
       <c r="K180" t="n">
-        <v>-2.227957423889709</v>
+        <v>0.08002070640424819</v>
       </c>
     </row>
     <row r="181">
@@ -8196,12 +8314,14 @@
       <c r="B181" t="n">
         <v>32.4255843278135</v>
       </c>
-      <c r="C181" t="n">
-        <v>13.42857142857143</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>79650129.32121204</t>
+        </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -8224,10 +8344,10 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>31.92798665796777</v>
+        <v>2615927993932.676</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.4975976698457316</v>
+        <v>2615927993900.25</v>
       </c>
     </row>
     <row r="182">
@@ -8239,12 +8359,14 @@
       <c r="B182" t="n">
         <v>30.6293529774186</v>
       </c>
-      <c r="C182" t="n">
-        <v>12.57142857142857</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>9.53957712918897</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -8267,10 +8389,10 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>31.84032508939515</v>
+        <v>31.53511389118306</v>
       </c>
       <c r="K182" t="n">
-        <v>1.210972111976556</v>
+        <v>0.9057609137644604</v>
       </c>
     </row>
     <row r="183">
@@ -8282,12 +8404,14 @@
       <c r="B183" t="n">
         <v>27.8813428504966</v>
       </c>
-      <c r="C183" t="n">
-        <v>12.71428571428571</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>-2.4142355198913212</t>
+        </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -8310,10 +8434,10 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>31.85489327568791</v>
+        <v>30.40560862254399</v>
       </c>
       <c r="K183" t="n">
-        <v>3.973550425191309</v>
+        <v>2.524265772047393</v>
       </c>
     </row>
     <row r="184">
@@ -8325,12 +8449,14 @@
       <c r="B184" t="n">
         <v>35.5478156953067</v>
       </c>
-      <c r="C184" t="n">
-        <v>12.71428571428571</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>5090096484.289187</t>
+        </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -8353,10 +8479,10 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>31.85489327568791</v>
+        <v>1.068325641810117e+16</v>
       </c>
       <c r="K184" t="n">
-        <v>-3.692922419618792</v>
+        <v>1.068325641810114e+16</v>
       </c>
     </row>
     <row r="185">
@@ -8368,12 +8494,14 @@
       <c r="B185" t="n">
         <v>38.5381074441282</v>
       </c>
-      <c r="C185" t="n">
-        <v>11.28571428571429</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>936.8002488677008</t>
+        </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -8396,10 +8524,10 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>31.7099687652086</v>
+        <v>478.2534937157739</v>
       </c>
       <c r="K185" t="n">
-        <v>-6.828138678919597</v>
+        <v>439.7153862716457</v>
       </c>
     </row>
     <row r="186">
@@ -8411,12 +8539,14 @@
       <c r="B186" t="n">
         <v>32.4057579571123</v>
       </c>
-      <c r="C186" t="n">
-        <v>11.42857142857143</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>110.26260739061937</t>
+        </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -8439,10 +8569,10 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>31.72438548101171</v>
+        <v>45.73201279766722</v>
       </c>
       <c r="K186" t="n">
-        <v>-0.6813724761005915</v>
+        <v>13.32625484055492</v>
       </c>
     </row>
     <row r="187">
@@ -8454,12 +8584,14 @@
       <c r="B187" t="n">
         <v>33.3864536680302</v>
       </c>
-      <c r="C187" t="n">
-        <v>11.28571428571429</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>334.21405922346275</t>
+        </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -8482,10 +8614,10 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>31.7099687652086</v>
+        <v>107.2794625150947</v>
       </c>
       <c r="K187" t="n">
-        <v>-1.676484902821596</v>
+        <v>73.89300884706446</v>
       </c>
     </row>
     <row r="188">
@@ -8497,12 +8629,14 @@
       <c r="B188" t="n">
         <v>33.8632982242097</v>
       </c>
-      <c r="C188" t="n">
-        <v>12.71428571428571</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>12.745096666182095</t>
+        </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -8525,10 +8659,10 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>31.85489327568791</v>
+        <v>31.85803749985945</v>
       </c>
       <c r="K188" t="n">
-        <v>-2.00840494852179</v>
+        <v>-2.005260724350251</v>
       </c>
     </row>
     <row r="189">
@@ -8540,12 +8674,14 @@
       <c r="B189" t="n">
         <v>30.1851951136848</v>
       </c>
-      <c r="C189" t="n">
-        <v>13.28571428571429</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>382.46586017414563</t>
+        </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -8568,10 +8704,10 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>31.91333432140299</v>
+        <v>125.9560099120792</v>
       </c>
       <c r="K189" t="n">
-        <v>1.72813920771819</v>
+        <v>95.77081479839438</v>
       </c>
     </row>
     <row r="190">
@@ -8583,12 +8719,14 @@
       <c r="B190" t="n">
         <v>31.0963695756299</v>
       </c>
-      <c r="C190" t="n">
-        <v>12</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>16.782925622885628</t>
+        </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -8611,10 +8749,10 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>31.78222064476819</v>
+        <v>32.27686761457215</v>
       </c>
       <c r="K190" t="n">
-        <v>0.6858510691382875</v>
+        <v>1.180498038942247</v>
       </c>
     </row>
     <row r="191">
@@ -8626,12 +8764,14 @@
       <c r="B191" t="n">
         <v>28.1934816309429</v>
       </c>
-      <c r="C191" t="n">
-        <v>11.42857142857143</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>679.5074669562291</t>
+        </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -8654,10 +8794,10 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>31.72438548101171</v>
+        <v>283.2220962607809</v>
       </c>
       <c r="K191" t="n">
-        <v>3.530903850068807</v>
+        <v>255.028614629838</v>
       </c>
     </row>
     <row r="192">
@@ -8669,12 +8809,14 @@
       <c r="B192" t="n">
         <v>30.5560048250251</v>
       </c>
-      <c r="C192" t="n">
-        <v>12.57142857142857</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>723.8688749942401</t>
+        </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -8697,10 +8839,10 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>31.84032508939515</v>
+        <v>312.9537391944081</v>
       </c>
       <c r="K192" t="n">
-        <v>1.284320264370056</v>
+        <v>282.397734369383</v>
       </c>
     </row>
     <row r="193">
@@ -8712,12 +8854,14 @@
       <c r="B193" t="n">
         <v>33.1123119118124</v>
       </c>
-      <c r="C193" t="n">
-        <v>13.57142857142857</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>71.84306961039705</t>
+        </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -8740,10 +8884,10 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>31.94265582458696</v>
+        <v>39.32978592404963</v>
       </c>
       <c r="K193" t="n">
-        <v>-1.169656087225437</v>
+        <v>6.217474012237233</v>
       </c>
     </row>
     <row r="194">
@@ -8755,12 +8899,14 @@
       <c r="B194" t="n">
         <v>31.3448155261195</v>
       </c>
-      <c r="C194" t="n">
-        <v>13.85714285714286</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>17.528774326872693</t>
+        </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -8783,10 +8929,10 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>31.97204464798855</v>
+        <v>32.35570311095378</v>
       </c>
       <c r="K194" t="n">
-        <v>0.6272291218690533</v>
+        <v>1.010887584834276</v>
       </c>
     </row>
     <row r="195">
@@ -8798,12 +8944,14 @@
       <c r="B195" t="n">
         <v>31.2608484988835</v>
       </c>
-      <c r="C195" t="n">
-        <v>11</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>9.273738676381841</t>
+        </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -8826,10 +8974,10 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>31.68118582376561</v>
+        <v>31.50871387345971</v>
       </c>
       <c r="K195" t="n">
-        <v>0.4203373248821087</v>
+        <v>0.2478653745762109</v>
       </c>
     </row>
     <row r="196">
@@ -8841,12 +8989,14 @@
       <c r="B196" t="n">
         <v>31.5591091794294</v>
       </c>
-      <c r="C196" t="n">
-        <v>11.85714285714286</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>90.35203727625426</t>
+        </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -8869,10 +9019,10 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>31.76773660874746</v>
+        <v>42.26216205891029</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2086274293180601</v>
+        <v>10.70305287948089</v>
       </c>
     </row>
     <row r="197">
@@ -8884,12 +9034,14 @@
       <c r="B197" t="n">
         <v>28.1712732058412</v>
       </c>
-      <c r="C197" t="n">
-        <v>11.57142857142857</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>179.4267390234249</t>
+        </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -8912,10 +9064,10 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>31.73881902686922</v>
+        <v>60.32568110027675</v>
       </c>
       <c r="K197" t="n">
-        <v>3.56754582102802</v>
+        <v>32.15440789443555</v>
       </c>
     </row>
     <row r="198">
@@ -8927,12 +9079,14 @@
       <c r="B198" t="n">
         <v>33.5166225167003</v>
       </c>
-      <c r="C198" t="n">
-        <v>11.57142857142857</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>11.550699410417602</t>
+        </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -8955,10 +9109,10 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>31.73881902686922</v>
+        <v>31.73672361592191</v>
       </c>
       <c r="K198" t="n">
-        <v>-1.777803489831083</v>
+        <v>-1.779898900778388</v>
       </c>
     </row>
     <row r="199">
@@ -8970,12 +9124,14 @@
       <c r="B199" t="n">
         <v>28.9707452961726</v>
       </c>
-      <c r="C199" t="n">
-        <v>11.71428571428571</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-361.0441747355254</t>
+        </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -8998,10 +9154,10 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>31.75326940278114</v>
+        <v>51.31948030403984</v>
       </c>
       <c r="K199" t="n">
-        <v>2.782524106608538</v>
+        <v>22.34873500786724</v>
       </c>
     </row>
     <row r="200">
@@ -9013,12 +9169,14 @@
       <c r="B200" t="n">
         <v>31.4499376707056</v>
       </c>
-      <c r="C200" t="n">
-        <v>11</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>3028.9200488368747</t>
+        </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -9041,10 +9199,10 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>31.68118582376561</v>
+        <v>4090.845732248853</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2312481530600081</v>
+        <v>4059.395794578147</v>
       </c>
     </row>
     <row r="201">
@@ -9056,12 +9214,14 @@
       <c r="B201" t="n">
         <v>30.6461845488005</v>
       </c>
-      <c r="C201" t="n">
-        <v>12.57142857142857</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>10.185343438284095</t>
+        </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -9084,10 +9244,10 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>31.84032508939515</v>
+        <v>31.59948670969501</v>
       </c>
       <c r="K201" t="n">
-        <v>1.194140540594656</v>
+        <v>0.9533021608945162</v>
       </c>
     </row>
     <row r="202">
@@ -9099,12 +9259,14 @@
       <c r="B202" t="n">
         <v>31.4024214384364</v>
       </c>
-      <c r="C202" t="n">
-        <v>12.57142857142857</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>182.5072377483723</t>
+        </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -9127,10 +9289,10 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>31.84032508939515</v>
+        <v>61.06743319946892</v>
       </c>
       <c r="K202" t="n">
-        <v>0.4379036509587557</v>
+        <v>29.66501176103252</v>
       </c>
     </row>
     <row r="203">
@@ -9142,12 +9304,14 @@
       <c r="B203" t="n">
         <v>34.5009831046413</v>
       </c>
-      <c r="C203" t="n">
-        <v>13.28571428571429</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>12.760483433114862</t>
+        </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -9170,10 +9334,10 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>31.91333432140299</v>
+        <v>31.85960799581301</v>
       </c>
       <c r="K203" t="n">
-        <v>-2.587648783238311</v>
+        <v>-2.641375108828289</v>
       </c>
     </row>
     <row r="204">
@@ -9185,12 +9349,14 @@
       <c r="B204" t="n">
         <v>30.5986033786627</v>
       </c>
-      <c r="C204" t="n">
-        <v>13</v>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>7.286154887621134</t>
+        </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -9213,10 +9379,10 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>31.88408013843664</v>
+        <v>31.31317670975455</v>
       </c>
       <c r="K204" t="n">
-        <v>1.285476759773939</v>
+        <v>0.7145733310918487</v>
       </c>
     </row>
     <row r="205">
@@ -9228,12 +9394,14 @@
       <c r="B205" t="n">
         <v>30.1460126719457</v>
       </c>
-      <c r="C205" t="n">
-        <v>12.14285714285714</v>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>217.2983826841768</t>
+        </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -9256,10 +9424,10 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>31.79672151084332</v>
+        <v>69.98807302549191</v>
       </c>
       <c r="K205" t="n">
-        <v>1.650708838897618</v>
+        <v>39.84206035354622</v>
       </c>
     </row>
     <row r="206">
@@ -9271,12 +9439,14 @@
       <c r="B206" t="n">
         <v>28.737436262759</v>
       </c>
-      <c r="C206" t="n">
-        <v>12</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>238.6808440395908</t>
+        </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -9299,10 +9469,10 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>31.78222064476819</v>
+        <v>75.96592257805096</v>
       </c>
       <c r="K206" t="n">
-        <v>3.044784382009187</v>
+        <v>47.22848631529196</v>
       </c>
     </row>
     <row r="207">
@@ -9314,12 +9484,14 @@
       <c r="B207" t="n">
         <v>30.282667953009</v>
       </c>
-      <c r="C207" t="n">
-        <v>11.14285714285714</v>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>80.7242453821211</t>
+        </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -9342,10 +9514,10 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>31.69556887945991</v>
+        <v>40.70157351081741</v>
       </c>
       <c r="K207" t="n">
-        <v>1.412900926450906</v>
+        <v>10.41890555780841</v>
       </c>
     </row>
     <row r="208">
@@ -9357,12 +9529,14 @@
       <c r="B208" t="n">
         <v>29.4856532028141</v>
       </c>
-      <c r="C208" t="n">
-        <v>11</v>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>7.806649995825104</t>
+        </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -9385,10 +9559,10 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>31.68118582376561</v>
+        <v>31.36406780518621</v>
       </c>
       <c r="K208" t="n">
-        <v>2.195532620951511</v>
+        <v>1.878414602372111</v>
       </c>
     </row>
     <row r="209">
@@ -9400,12 +9574,14 @@
       <c r="B209" t="n">
         <v>32.7160219738708</v>
       </c>
-      <c r="C209" t="n">
-        <v>13.14285714285714</v>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>131563.7906713068</t>
+        </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -9428,10 +9604,10 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>31.89869881489261</v>
+        <v>7149217.807806924</v>
       </c>
       <c r="K209" t="n">
-        <v>-0.8173231589781942</v>
+        <v>7149185.09178495</v>
       </c>
     </row>
     <row r="210">
@@ -9443,12 +9619,14 @@
       <c r="B210" t="n">
         <v>29.8911616220665</v>
       </c>
-      <c r="C210" t="n">
-        <v>11.85714285714286</v>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>6970.533857993307</t>
+        </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -9471,10 +9649,10 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>31.76773660874746</v>
+        <v>20703.52304453367</v>
       </c>
       <c r="K210" t="n">
-        <v>1.876574986680957</v>
+        <v>20673.63188291161</v>
       </c>
     </row>
     <row r="211">
@@ -9486,12 +9664,14 @@
       <c r="B211" t="n">
         <v>32.3448873999274</v>
       </c>
-      <c r="C211" t="n">
-        <v>12.57142857142857</v>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2904.373608026989</t>
+        </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -9514,10 +9694,10 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>31.84032508939515</v>
+        <v>3774.738940078408</v>
       </c>
       <c r="K211" t="n">
-        <v>-0.504562310532247</v>
+        <v>3742.394052678481</v>
       </c>
     </row>
     <row r="212">
@@ -9529,12 +9709,14 @@
       <c r="B212" t="n">
         <v>34.5703607329656</v>
       </c>
-      <c r="C212" t="n">
-        <v>15.17725699728117</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>15.192885742208517</t>
+        </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -9557,10 +9739,10 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>32.10870685488999</v>
+        <v>32.11033339774244</v>
       </c>
       <c r="K212" t="n">
-        <v>-2.461653878075609</v>
+        <v>-2.460027335223153</v>
       </c>
     </row>
     <row r="213">
@@ -9572,12 +9754,14 @@
       <c r="B213" t="n">
         <v>29.0105368357815</v>
       </c>
-      <c r="C213" t="n">
-        <v>11.28571428571429</v>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1742.449770276767</t>
+        </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -9600,10 +9784,10 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>31.7099687652086</v>
+        <v>1442.05460493899</v>
       </c>
       <c r="K213" t="n">
-        <v>2.699431929427103</v>
+        <v>1413.044068103208</v>
       </c>
     </row>
     <row r="214">
@@ -9615,12 +9799,14 @@
       <c r="B214" t="n">
         <v>30.0931266499348</v>
       </c>
-      <c r="C214" t="n">
-        <v>12.57142857142857</v>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4483.003278711921</t>
+        </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -9643,10 +9829,10 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>31.84032508939515</v>
+        <v>8727.902616620624</v>
       </c>
       <c r="K214" t="n">
-        <v>1.747198439460355</v>
+        <v>8697.809489970688</v>
       </c>
     </row>
     <row r="215">
@@ -9658,12 +9844,14 @@
       <c r="B215" t="n">
         <v>33.8308993299421</v>
       </c>
-      <c r="C215" t="n">
-        <v>12.14285714285714</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>51043.975227340765</t>
+        </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -9686,10 +9874,10 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>31.79672151084332</v>
+        <v>1079040.878483128</v>
       </c>
       <c r="K215" t="n">
-        <v>-2.03417781909878</v>
+        <v>1079007.047583798</v>
       </c>
     </row>
     <row r="216">
@@ -9701,12 +9889,14 @@
       <c r="B216" t="n">
         <v>33.3757567660939</v>
       </c>
-      <c r="C216" t="n">
-        <v>12.85714285714286</v>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>33.69270065091065</t>
+        </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -9729,10 +9919,10 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>31.86947829203507</v>
+        <v>34.17691791377077</v>
       </c>
       <c r="K216" t="n">
-        <v>-1.506278474058831</v>
+        <v>0.801161147676865</v>
       </c>
     </row>
     <row r="217">
@@ -9744,12 +9934,14 @@
       <c r="B217" t="n">
         <v>35.568089454265</v>
       </c>
-      <c r="C217" t="n">
-        <v>13.14285714285714</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>4.797846309087538</t>
+        </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -9772,10 +9964,10 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>31.89869881489261</v>
+        <v>31.07297093139185</v>
       </c>
       <c r="K217" t="n">
-        <v>-3.669390639372391</v>
+        <v>-4.495118522873145</v>
       </c>
     </row>
     <row r="218">
@@ -9787,12 +9979,14 @@
       <c r="B218" t="n">
         <v>31.7837952858894</v>
       </c>
-      <c r="C218" t="n">
-        <v>12.28571428571429</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>61.910393963252645</t>
+        </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -9815,10 +10009,10 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>31.81123920697286</v>
+        <v>37.87263759446601</v>
       </c>
       <c r="K218" t="n">
-        <v>0.02744392108346005</v>
+        <v>6.088842308576606</v>
       </c>
     </row>
     <row r="219">
@@ -9830,12 +10024,14 @@
       <c r="B219" t="n">
         <v>28.6124502205125</v>
       </c>
-      <c r="C219" t="n">
-        <v>13.71428571428571</v>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>22.610953054422318</t>
+        </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -9858,10 +10054,10 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>31.95734182126056</v>
+        <v>32.90509757505311</v>
       </c>
       <c r="K219" t="n">
-        <v>3.344891600748056</v>
+        <v>4.292647354540605</v>
       </c>
     </row>
     <row r="220">
@@ -9873,12 +10069,14 @@
       <c r="B220" t="n">
         <v>30.1808820146395</v>
       </c>
-      <c r="C220" t="n">
-        <v>13.85714285714286</v>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>284.4098897541654</t>
+        </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -9901,10 +10099,10 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>31.97204464798855</v>
+        <v>90.01573288922883</v>
       </c>
       <c r="K220" t="n">
-        <v>1.791162633349053</v>
+        <v>59.83485087458933</v>
       </c>
     </row>
     <row r="221">
@@ -9916,12 +10114,14 @@
       <c r="B221" t="n">
         <v>32.5106268967154</v>
       </c>
-      <c r="C221" t="n">
-        <v>12.28571428571429</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>12.336600485467146</t>
+        </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -9944,10 +10144,10 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>31.81123920697286</v>
+        <v>31.81641452483644</v>
       </c>
       <c r="K221" t="n">
-        <v>-0.6993876897425402</v>
+        <v>-0.6942123718789652</v>
       </c>
     </row>
     <row r="222">
@@ -9959,12 +10159,14 @@
       <c r="B222" t="n">
         <v>35.2854862281454</v>
       </c>
-      <c r="C222" t="n">
-        <v>12.57142857142857</v>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>49.66735800216607</t>
+        </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -9987,10 +10189,10 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>31.84032508939515</v>
+        <v>36.18850213949214</v>
       </c>
       <c r="K222" t="n">
-        <v>-3.445161138750247</v>
+        <v>0.903015911346742</v>
       </c>
     </row>
     <row r="223">
@@ -10002,12 +10204,14 @@
       <c r="B223" t="n">
         <v>32.017138236274</v>
       </c>
-      <c r="C223" t="n">
-        <v>13.71428571428571</v>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2.1624000187479666</t>
+        </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -10030,10 +10234,10 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>31.95734182126056</v>
+        <v>30.82412933125796</v>
       </c>
       <c r="K223" t="n">
-        <v>-0.05979641501344446</v>
+        <v>-1.193008905016036</v>
       </c>
     </row>
     <row r="224">
@@ -10045,12 +10249,14 @@
       <c r="B224" t="n">
         <v>33.9760383005359</v>
       </c>
-      <c r="C224" t="n">
-        <v>12.14285714285714</v>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>12.716116995886784</t>
+        </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -10073,10 +10279,10 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>31.79672151084332</v>
+        <v>31.85508013410334</v>
       </c>
       <c r="K224" t="n">
-        <v>-2.179316789692578</v>
+        <v>-2.120958166432558</v>
       </c>
     </row>
     <row r="225">
@@ -10088,12 +10294,14 @@
       <c r="B225" t="n">
         <v>33.2112588359789</v>
       </c>
-      <c r="C225" t="n">
-        <v>13.57142857142857</v>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>6417590.272825614</t>
+        </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -10116,10 +10324,10 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>31.94265582458696</v>
+        <v>16982851139.21502</v>
       </c>
       <c r="K225" t="n">
-        <v>-1.268603011391942</v>
+        <v>16982851106.00376</v>
       </c>
     </row>
     <row r="226">
@@ -10131,12 +10339,14 @@
       <c r="B226" t="n">
         <v>29.565669647543</v>
       </c>
-      <c r="C226" t="n">
-        <v>13.57142857142857</v>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>48.54595634908746</t>
+        </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -10159,10 +10369,10 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>31.94265582458696</v>
+        <v>36.04042329038407</v>
       </c>
       <c r="K226" t="n">
-        <v>2.37698617704396</v>
+        <v>6.474753642841069</v>
       </c>
     </row>
     <row r="227">
@@ -10174,12 +10384,14 @@
       <c r="B227" t="n">
         <v>31.6317360439571</v>
       </c>
-      <c r="C227" t="n">
-        <v>12.71428571428571</v>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>173.08254648588064</t>
+        </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -10202,10 +10414,10 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>31.85489327568791</v>
+        <v>58.82271986453365</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2231572317308093</v>
+        <v>27.19098382057655</v>
       </c>
     </row>
     <row r="228">
@@ -10217,12 +10429,14 @@
       <c r="B228" t="n">
         <v>34.3011931037096</v>
       </c>
-      <c r="C228" t="n">
-        <v>11.14285714285714</v>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>11.894158542276985</t>
+        </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -10245,10 +10459,10 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>31.69556887945991</v>
+        <v>31.77148794891632</v>
       </c>
       <c r="K228" t="n">
-        <v>-2.605624224249695</v>
+        <v>-2.52970515479328</v>
       </c>
     </row>
     <row r="229">
@@ -10260,12 +10474,14 @@
       <c r="B229" t="n">
         <v>33.517889736661</v>
       </c>
-      <c r="C229" t="n">
-        <v>13.14285714285714</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>29.673329514023067</t>
+        </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -10288,10 +10504,10 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>31.89869881489261</v>
+        <v>33.70392152641877</v>
       </c>
       <c r="K229" t="n">
-        <v>-1.619190921768389</v>
+        <v>0.1860317897577701</v>
       </c>
     </row>
     <row r="230">
@@ -10303,12 +10519,14 @@
       <c r="B230" t="n">
         <v>32.7639415172495</v>
       </c>
-      <c r="C230" t="n">
-        <v>12.14285714285714</v>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2758.499511250085</t>
+        </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -10331,10 +10549,10 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>31.79672151084332</v>
+        <v>3420.766776230302</v>
       </c>
       <c r="K230" t="n">
-        <v>-0.9672200064061798</v>
+        <v>3388.002834713053</v>
       </c>
     </row>
     <row r="231">
@@ -10346,12 +10564,14 @@
       <c r="B231" t="n">
         <v>32.3650783411902</v>
       </c>
-      <c r="C231" t="n">
-        <v>13</v>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>54.477058938481676</t>
+        </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -10374,10 +10594,10 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>31.88408013843664</v>
+        <v>36.83537619260664</v>
       </c>
       <c r="K231" t="n">
-        <v>-0.4809982027535611</v>
+        <v>4.47029785141644</v>
       </c>
     </row>
     <row r="232">
@@ -10389,12 +10609,14 @@
       <c r="B232" t="n">
         <v>30.7633136737466</v>
       </c>
-      <c r="C232" t="n">
-        <v>12.71428571428571</v>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-266.7470548330914</t>
+        </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -10417,10 +10639,10 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>31.85489327568791</v>
+        <v>35.54262463697695</v>
       </c>
       <c r="K232" t="n">
-        <v>1.091579601941309</v>
+        <v>4.779310963230344</v>
       </c>
     </row>
     <row r="233">
@@ -10432,12 +10654,14 @@
       <c r="B233" t="n">
         <v>29.090374615573</v>
       </c>
-      <c r="C233" t="n">
-        <v>13.42857142857143</v>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>463.49083466600405</t>
+        </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -10460,10 +10684,10 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>31.92798665796777</v>
+        <v>161.6369590274593</v>
       </c>
       <c r="K233" t="n">
-        <v>2.83761204239477</v>
+        <v>132.5465844118863</v>
       </c>
     </row>
     <row r="234">
@@ -10475,12 +10699,14 @@
       <c r="B234" t="n">
         <v>34.4843990684449</v>
       </c>
-      <c r="C234" t="n">
-        <v>13.71428571428571</v>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>177981.72045513112</t>
+        </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -10503,10 +10729,10 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>31.95734182126056</v>
+        <v>13078106.26836472</v>
       </c>
       <c r="K234" t="n">
-        <v>-2.527057247184345</v>
+        <v>13078071.78396565</v>
       </c>
     </row>
     <row r="235">
@@ -10518,12 +10744,14 @@
       <c r="B235" t="n">
         <v>29.1237418193401</v>
       </c>
-      <c r="C235" t="n">
-        <v>11.14285714285714</v>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>277908669.9097464</t>
+        </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -10546,10 +10774,10 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>31.69556887945991</v>
+        <v>31846091791678.03</v>
       </c>
       <c r="K235" t="n">
-        <v>2.571827060119805</v>
+        <v>31846091791648.91</v>
       </c>
     </row>
     <row r="236">
@@ -10561,12 +10789,14 @@
       <c r="B236" t="n">
         <v>29.8110043544814</v>
       </c>
-      <c r="C236" t="n">
-        <v>13.28571428571429</v>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>8.839471454276225</t>
+        </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -10589,10 +10819,10 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>31.91333432140299</v>
+        <v>31.46571281130012</v>
       </c>
       <c r="K236" t="n">
-        <v>2.102329966921587</v>
+        <v>1.654708456818717</v>
       </c>
     </row>
     <row r="237">
@@ -10604,12 +10834,14 @@
       <c r="B237" t="n">
         <v>33.0200653600827</v>
       </c>
-      <c r="C237" t="n">
-        <v>11.71428571428571</v>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>3963.9565697488038</t>
+        </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -10632,10 +10864,10 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>31.75326940278114</v>
+        <v>6872.549635582283</v>
       </c>
       <c r="K237" t="n">
-        <v>-1.266795957301561</v>
+        <v>6839.529570222201</v>
       </c>
     </row>
     <row r="238">
@@ -10647,12 +10879,14 @@
       <c r="B238" t="n">
         <v>29.0378761457738</v>
       </c>
-      <c r="C238" t="n">
-        <v>12.71428571428571</v>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>295.02418429284353</t>
+        </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -10675,10 +10909,10 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>31.85489327568791</v>
+        <v>93.52346859567749</v>
       </c>
       <c r="K238" t="n">
-        <v>2.81701712991411</v>
+        <v>64.48559244990369</v>
       </c>
     </row>
     <row r="239">
@@ -10690,12 +10924,14 @@
       <c r="B239" t="n">
         <v>30.7588525202617</v>
       </c>
-      <c r="C239" t="n">
-        <v>12.57142857142857</v>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>11.946237830919609</t>
+        </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -10718,10 +10954,10 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>31.84032508939515</v>
+        <v>31.7767678173477</v>
       </c>
       <c r="K239" t="n">
-        <v>1.081472569133453</v>
+        <v>1.017915297085995</v>
       </c>
     </row>
     <row r="240">
@@ -10733,12 +10969,14 @@
       <c r="B240" t="n">
         <v>29.4190260663914</v>
       </c>
-      <c r="C240" t="n">
-        <v>13.28571428571429</v>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>43.14204412410558</t>
+        </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -10761,10 +10999,10 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>31.91333432140299</v>
+        <v>35.34138736734734</v>
       </c>
       <c r="K240" t="n">
-        <v>2.494308255011589</v>
+        <v>5.922361300955945</v>
       </c>
     </row>
     <row r="241">
@@ -10776,12 +11014,14 @@
       <c r="B241" t="n">
         <v>33.2122104699348</v>
       </c>
-      <c r="C241" t="n">
-        <v>12.42857142857143</v>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>10377.890872734863</t>
+        </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -10804,10 +11044,10 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>31.8257737331568</v>
+        <v>45389.60968381823</v>
       </c>
       <c r="K241" t="n">
-        <v>-1.386436736777998</v>
+        <v>45356.39747334829</v>
       </c>
     </row>
     <row r="242">
@@ -10819,12 +11059,14 @@
       <c r="B242" t="n">
         <v>32.311708576773</v>
       </c>
-      <c r="C242" t="n">
-        <v>12.28571428571429</v>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>574.396192679994</t>
+        </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -10847,10 +11089,10 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>31.81123920697286</v>
+        <v>219.2533590042378</v>
       </c>
       <c r="K242" t="n">
-        <v>-0.5004693698001397</v>
+        <v>186.9416504274648</v>
       </c>
     </row>
     <row r="243">
@@ -10862,12 +11104,14 @@
       <c r="B243" t="n">
         <v>32.5941312641211</v>
       </c>
-      <c r="C243" t="n">
-        <v>13.28571428571429</v>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>12.03478293728632</t>
+        </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -10890,10 +11134,10 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>31.91333432140299</v>
+        <v>31.7857497737459</v>
       </c>
       <c r="K243" t="n">
-        <v>-0.6807969427181142</v>
+        <v>-0.8083814903752042</v>
       </c>
     </row>
     <row r="244">
@@ -10905,12 +11149,14 @@
       <c r="B244" t="n">
         <v>32.5579873449767</v>
       </c>
-      <c r="C244" t="n">
-        <v>13.14285714285714</v>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>19.79402396757343</t>
+        </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -10933,10 +11179,10 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>31.89869881489261</v>
+        <v>32.59795033719438</v>
       </c>
       <c r="K244" t="n">
-        <v>-0.659288530084094</v>
+        <v>0.0399629922176814</v>
       </c>
     </row>
     <row r="245">
@@ -10948,12 +11194,14 @@
       <c r="B245" t="n">
         <v>32.9258922118661</v>
       </c>
-      <c r="C245" t="n">
-        <v>11.85714285714286</v>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>12.255947222654521</t>
+        </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -10976,10 +11224,10 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>31.76773660874746</v>
+        <v>31.80821277466732</v>
       </c>
       <c r="K245" t="n">
-        <v>-1.15815560311864</v>
+        <v>-1.117679437198781</v>
       </c>
     </row>
     <row r="246">
@@ -10991,12 +11239,14 @@
       <c r="B246" t="n">
         <v>33.0500666835481</v>
       </c>
-      <c r="C246" t="n">
-        <v>13.42857142857143</v>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>148.24202605107521</t>
+        </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -11019,10 +11269,10 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>31.92798665796777</v>
+        <v>53.25732841309633</v>
       </c>
       <c r="K246" t="n">
-        <v>-1.122080025580331</v>
+        <v>20.20726172954823</v>
       </c>
     </row>
     <row r="247">
@@ -11034,12 +11284,14 @@
       <c r="B247" t="n">
         <v>28.0649314858714</v>
       </c>
-      <c r="C247" t="n">
-        <v>13</v>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>475.97355356504517</t>
+        </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -11062,10 +11314,10 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>31.88408013843664</v>
+        <v>167.615262478642</v>
       </c>
       <c r="K247" t="n">
-        <v>3.819148652565236</v>
+        <v>139.5503309927706</v>
       </c>
     </row>
     <row r="248">
@@ -11077,12 +11329,14 @@
       <c r="B248" t="n">
         <v>31.5632692602157</v>
       </c>
-      <c r="C248" t="n">
-        <v>13.28571428571429</v>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>141198.37397536112</t>
+        </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -11105,10 +11359,10 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>31.91333432140299</v>
+        <v>8233699.047001492</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3500650611872871</v>
+        <v>8233667.483732232</v>
       </c>
     </row>
     <row r="249">
@@ -11120,12 +11374,14 @@
       <c r="B249" t="n">
         <v>32.1364343541481</v>
       </c>
-      <c r="C249" t="n">
-        <v>12.57142857142857</v>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>155813947213604.8</t>
+        </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -11148,10 +11404,10 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>31.84032508939515</v>
+        <v>1.001069577866619e+25</v>
       </c>
       <c r="K249" t="n">
-        <v>-0.2961092647529462</v>
+        <v>1.001069577866619e+25</v>
       </c>
     </row>
     <row r="250">
@@ -11163,12 +11419,14 @@
       <c r="B250" t="n">
         <v>33.341955021822</v>
       </c>
-      <c r="C250" t="n">
-        <v>13.42857142857143</v>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>10.158095075285472</t>
+        </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -11191,10 +11449,10 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>31.92798665796777</v>
+        <v>31.59676352398706</v>
       </c>
       <c r="K250" t="n">
-        <v>-1.413968363854231</v>
+        <v>-1.745191497834945</v>
       </c>
     </row>
     <row r="251">
@@ -11206,12 +11464,14 @@
       <c r="B251" t="n">
         <v>29.7475745109286</v>
       </c>
-      <c r="C251" t="n">
-        <v>11.57142857142857</v>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>567.8183800909263</t>
+        </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -11234,10 +11494,10 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>31.73881902686922</v>
+        <v>215.5531575219754</v>
       </c>
       <c r="K251" t="n">
-        <v>1.991244515940618</v>
+        <v>185.8055830110467</v>
       </c>
     </row>
     <row r="252">
@@ -11249,12 +11509,14 @@
       <c r="B252" t="n">
         <v>30.5863183332595</v>
       </c>
-      <c r="C252" t="n">
-        <v>11.71428571428571</v>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>5.955991427401532</t>
+        </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -11277,10 +11539,10 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>31.75326940278114</v>
+        <v>31.18413581874788</v>
       </c>
       <c r="K252" t="n">
-        <v>1.166951069521637</v>
+        <v>0.5978174854883775</v>
       </c>
     </row>
     <row r="253">
@@ -11292,12 +11554,14 @@
       <c r="B253" t="n">
         <v>29.9960650360448</v>
       </c>
-      <c r="C253" t="n">
-        <v>13.71428571428571</v>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>18.468104703423073</t>
+        </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -11320,10 +11584,10 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>31.95734182126056</v>
+        <v>32.45564213915419</v>
       </c>
       <c r="K253" t="n">
-        <v>1.961276785215755</v>
+        <v>2.459577103109385</v>
       </c>
     </row>
     <row r="254">
@@ -11335,12 +11599,14 @@
       <c r="B254" t="n">
         <v>33.7864936354758</v>
       </c>
-      <c r="C254" t="n">
-        <v>12.14285714285714</v>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>276.85895884183526</t>
+        </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -11363,10 +11629,10 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>31.79672151084332</v>
+        <v>87.57691340826203</v>
       </c>
       <c r="K254" t="n">
-        <v>-1.989772124632481</v>
+        <v>53.79041977278623</v>
       </c>
     </row>
     <row r="255">
@@ -11378,12 +11644,14 @@
       <c r="B255" t="n">
         <v>34.215671325648</v>
       </c>
-      <c r="C255" t="n">
-        <v>12.57142857142857</v>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2507089.426466314</t>
+        </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -11406,10 +11674,10 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>31.84032508939515</v>
+        <v>2591968502.807456</v>
       </c>
       <c r="K255" t="n">
-        <v>-2.375346236252849</v>
+        <v>2591968468.591785</v>
       </c>
     </row>
     <row r="256">
@@ -11421,12 +11689,14 @@
       <c r="B256" t="n">
         <v>33.4137005937043</v>
       </c>
-      <c r="C256" t="n">
-        <v>12.28571428571429</v>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>84.88487162702118</t>
+        </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -11449,10 +11719,10 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>31.81123920697286</v>
+        <v>41.36659861241832</v>
       </c>
       <c r="K256" t="n">
-        <v>-1.602461386731438</v>
+        <v>7.952898018714023</v>
       </c>
     </row>
     <row r="257">
@@ -11464,12 +11734,14 @@
       <c r="B257" t="n">
         <v>29.3466867640343</v>
       </c>
-      <c r="C257" t="n">
-        <v>12.57142857142857</v>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>53.67879760828856</t>
+        </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -11492,10 +11764,10 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>31.84032508939515</v>
+        <v>36.72669476876244</v>
       </c>
       <c r="K257" t="n">
-        <v>2.493638325360855</v>
+        <v>7.380008004728136</v>
       </c>
     </row>
     <row r="258">
@@ -11507,12 +11779,14 @@
       <c r="B258" t="n">
         <v>32.4710620375276</v>
       </c>
-      <c r="C258" t="n">
-        <v>11.71428571428571</v>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>7.4173160980734725</t>
+        </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -11535,10 +11809,10 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>31.75326940278114</v>
+        <v>31.32597986187469</v>
       </c>
       <c r="K258" t="n">
-        <v>-0.7177926347464663</v>
+        <v>-1.145082175652917</v>
       </c>
     </row>
     <row r="259">
@@ -11550,12 +11824,14 @@
       <c r="B259" t="n">
         <v>33.7196780111091</v>
       </c>
-      <c r="C259" t="n">
-        <v>11.71428571428571</v>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>9.218536445162245</t>
+        </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -11578,10 +11854,10 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>31.75326940278114</v>
+        <v>31.50323913022746</v>
       </c>
       <c r="K259" t="n">
-        <v>-1.966408608327967</v>
+        <v>-2.216438880881647</v>
       </c>
     </row>
     <row r="260">
@@ -11593,12 +11869,14 @@
       <c r="B260" t="n">
         <v>32.1350948388576</v>
       </c>
-      <c r="C260" t="n">
-        <v>13.71428571428571</v>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>86.16833959069666</t>
+        </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -11621,10 +11899,10 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>31.95734182126056</v>
+        <v>41.57462635894709</v>
       </c>
       <c r="K260" t="n">
-        <v>-0.1777530175970412</v>
+        <v>9.439531520089488</v>
       </c>
     </row>
     <row r="261">
@@ -11636,12 +11914,14 @@
       <c r="B261" t="n">
         <v>30.7031331865731</v>
       </c>
-      <c r="C261" t="n">
-        <v>11.57142857142857</v>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>985.3423195623408</t>
+        </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>线性插值</t>
+          <t>PCHIP插值</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -11664,10 +11944,10 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>31.73881902686922</v>
+        <v>521.1705239856633</v>
       </c>
       <c r="K261" t="n">
-        <v>1.035685840296118</v>
+        <v>490.4673907990902</v>
       </c>
     </row>
   </sheetData>
